--- a/examples/teaching/TeachingSchema.xlsx
+++ b/examples/teaching/TeachingSchema.xlsx
@@ -4,19 +4,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Chapter" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Issue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Presentation" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LearningGoal" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Keyword" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="LearningGoal" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Presentation" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Publication" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Slide" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Check" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Issue" sheetId="7" state="visible" r:id="rId7"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RelevanceLevel" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Slide" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Publication" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -433,32 +433,32 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>chapter__key</t>
+          <t>key</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>chapter__no</t>
+          <t>no</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>chapter__pres_id</t>
+          <t>pres_id</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>chapter__week</t>
+          <t>week</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>chapter__de</t>
+          <t>de</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>chapter__en</t>
+          <t>en</t>
         </is>
       </c>
     </row>
@@ -468,143 +468,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>slide__qkey</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>slide__pkey</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>slide__basename</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>slide__page</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>slide__name</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>slide__title</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>slide__keywords</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>slide__links</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>slide__literature</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>slide__learningGoal</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>check__qKey</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>check__key</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>check__concept</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>check__since</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>check__check</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>check__problem</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>check__ok</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>check__total</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>check__pain</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -621,17 +484,149 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>issue__item</t>
+          <t>gid</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>issue__check</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>issue__fix</t>
+          <t>url</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>num</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>ppt_file</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>sciebo</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>gitlab</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>moodle</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>qKey</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>id</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>chapter</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>chapterKey</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>subChapter</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>subChapterKey</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>relevance</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>keywords</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>since</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>until</t>
         </is>
       </c>
     </row>
@@ -657,47 +652,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>keyword__key</t>
+          <t>key</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>keyword__aliases</t>
+          <t>aliases</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>keyword__de</t>
+          <t>de</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>keyword__en</t>
+          <t>en</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>keyword__wikidataid</t>
+          <t>wikidataid</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>keyword__links</t>
+          <t>links</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>keyword__literature</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>keyword__urls</t>
+          <t>urls</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>keyword__stackoverflow_tag</t>
+          <t>stackoverflow_tag</t>
         </is>
       </c>
     </row>
@@ -712,7 +707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,57 +718,52 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>learningGoal__key</t>
+          <t>qkey</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>learningGoal__qKey</t>
+          <t>pkey</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>learningGoal__id</t>
+          <t>basename</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>learningGoal__chapter</t>
+          <t>page</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>learningGoal__chapterKey</t>
+          <t>name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>learningGoal__subChapter</t>
+          <t>title</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>learningGoal__subChapterKey</t>
+          <t>keywords</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>learningGoal__relevance</t>
+          <t>links</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>learningGoal__keywords</t>
+          <t>literature</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>learningGoal__since</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>learningGoal__until</t>
+          <t>learningGoal</t>
         </is>
       </c>
     </row>
@@ -783,62 +773,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>presentation__key</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>presentation__num</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>presentation__name</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>presentation__ppt_file</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>presentation__sciebo</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>presentation__gitlab</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>presentation__moodle</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -855,47 +789,83 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>publication__id</t>
+          <t>qKey</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>publication__doi</t>
+          <t>key</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>publication__wikidataid</t>
+          <t>concept</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>publication__isbn</t>
+          <t>since</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>publication__title</t>
+          <t>check</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>publication__authors</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>publication__publisher</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>publication__year</t>
+          <t>total</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>publication__pdfUrl</t>
+          <t>pain</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>item</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>check</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>fix</t>
         </is>
       </c>
     </row>
@@ -921,22 +891,22 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>relevanceLevel__id</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>relevanceLevel__expectation</t>
+          <t>expectation</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>relevanceLevel__examination</t>
+          <t>examination</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>relevanceLevel__description</t>
+          <t>description</t>
         </is>
       </c>
     </row>
@@ -951,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -962,17 +932,47 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>sheet__gid</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sheet__concept</t>
+          <t>doi</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>sheet__url</t>
+          <t>wikidataid</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>isbn</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>title</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>authors</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>publisher</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>year</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>pdfUrl</t>
         </is>
       </c>
     </row>
